--- a/data/TopOnePercent/Shaanxi Normal University.xlsx
+++ b/data/TopOnePercent/Shaanxi Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2770.0</v>
+        <v>2683.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>35835.0</v>
+        <v>34963.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>12.94</v>
+        <v>13.03</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1321.0</v>
+        <v>1306.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>20580.0</v>
+        <v>20497.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>15.58</v>
+        <v>15.69</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>448.0</v>
+        <v>444.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>4801.0</v>
+        <v>4474.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>10.72</v>
+        <v>10.08</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,13 +250,13 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>519.0</v>
+        <v>521.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>4539.0</v>
+        <v>4195.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>8.75</v>
+        <v>8.05</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>10.0</v>
@@ -272,22 +272,22 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>9966.0</v>
+        <v>9823.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>100769.0</v>
+        <v>98611.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>10.11</v>
+        <v>10.04</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>123.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
